--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/UI/KeyWordDrivenFramework-sample-project/src/test/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Solutions/ccs-enterprise-automation-ui-project/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9836895E-0C42-3741-B813-66D85A18F223}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01146C36-CF4A-2948-9FAB-FB6ED60A513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="752" windowHeight="10880" windowWidth="26200" xWindow="1760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2020"/>
+    <workbookView xWindow="1760" yWindow="2020" windowWidth="26200" windowHeight="10880" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
-    <sheet name="TC001_SignIn" r:id="rId3" sheetId="3"/>
-    <sheet name="TC002_SignUp" r:id="rId4" sheetId="10"/>
+    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
+    <sheet name="TC001_SignIn" sheetId="3" r:id="rId3"/>
+    <sheet name="TC002_SignUp" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>TS_02</t>
   </si>
@@ -366,14 +366,25 @@
     <t>To clear value from a text box</t>
   </si>
   <si>
-    <t/>
+    <t>To save element text to runtime session data manager. The key will be element name.</t>
+  </si>
+  <si>
+    <t>To save a value to runtime. Pass the key in 'selector' column, and value in 'data' column</t>
+  </si>
+  <si>
+    <t>To verify element text with saved session data. Pass the 'element' as selector and expected 'key' as data.</t>
+  </si>
+  <si>
+    <t>Enter with saved value from session data. Pass the expected key as 'data'</t>
+  </si>
+  <si>
+    <t>To check if element is disabled.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,54 +488,54 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -541,10 +552,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -579,7 +590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,7 +642,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,7 +747,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -745,13 +756,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -761,7 +772,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -770,7 +781,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -779,7 +790,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -789,12 +800,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -825,7 +836,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -844,7 +855,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -856,20 +867,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="24.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="142.5" collapsed="true"/>
+    <col min="1" max="1" width="24.1640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="142.5" style="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
@@ -877,7 +888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -885,7 +896,7 @@
         <v>56</v>
       </c>
     </row>
-    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -893,7 +904,7 @@
         <v>57</v>
       </c>
     </row>
-    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -901,7 +912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
@@ -909,7 +920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
@@ -917,7 +928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -925,7 +936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
@@ -933,7 +944,7 @@
         <v>61</v>
       </c>
     </row>
-    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
@@ -941,7 +952,7 @@
         <v>63</v>
       </c>
     </row>
-    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -949,7 +960,7 @@
         <v>68</v>
       </c>
     </row>
-    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
@@ -957,7 +968,7 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -965,7 +976,7 @@
         <v>66</v>
       </c>
     </row>
-    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -973,7 +984,7 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -981,7 +992,7 @@
         <v>69</v>
       </c>
     </row>
-    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -989,7 +1000,7 @@
         <v>70</v>
       </c>
     </row>
-    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
@@ -997,7 +1008,7 @@
         <v>71</v>
       </c>
     </row>
-    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -1005,7 +1016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>36</v>
       </c>
@@ -1013,7 +1024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
@@ -1021,7 +1032,7 @@
         <v>74</v>
       </c>
     </row>
-    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
@@ -1029,7 +1040,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
@@ -1037,7 +1048,7 @@
         <v>76</v>
       </c>
     </row>
-    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>43</v>
       </c>
@@ -1045,7 +1056,7 @@
         <v>77</v>
       </c>
     </row>
-    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
@@ -1053,7 +1064,7 @@
         <v>78</v>
       </c>
     </row>
-    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>45</v>
       </c>
@@ -1061,7 +1072,7 @@
         <v>79</v>
       </c>
     </row>
-    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
@@ -1069,32 +1080,47 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>55</v>
       </c>
@@ -1103,14 +1129,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1118,11 +1144,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="81.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
-    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1139,7 +1165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="16" r="2" s="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1153,7 +1179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="16" r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -1169,32 +1195,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="TC001_SignIn" location="TC001_SignIn!A1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink display="TC002_SignUp" location="TC002_SignUp!A1" ref="A3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A2" location="TC001_SignIn!A1" display="TC001_SignIn" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" location="TC002_SignUp!A1" display="TC002_SignUp" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="53.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="70.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="40.5" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.5" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="70.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.5" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1274,12 +1300,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{1A82EE43-19D1-E849-B185-86D9C39F7226}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A82EE43-19D1-E849-B185-86D9C39F7226}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -1292,8 +1318,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -1301,15 +1327,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="53.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="70.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.5" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="70.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1357,11 +1383,11 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C14" type="list" xr:uid="{27B9D99F-DC95-694B-9F80-C667522DFFA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14" xr:uid="{27B9D99F-DC95-694B-9F80-C667522DFFA4}">
       <formula1>"NavigateTo,ClickOnElement,HighlightElement,HoverOnElement"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Solutions/ccs-enterprise-automation-ui-project/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01146C36-CF4A-2948-9FAB-FB6ED60A513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FF93901F-1912-784D-BF8D-A5BF54E1AEF7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="2020" windowWidth="26200" windowHeight="10880" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" tabRatio="752" windowHeight="10880" windowWidth="26200" xWindow="1760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2020"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
-    <sheet name="TC001_SignIn" sheetId="3" r:id="rId3"/>
-    <sheet name="TC002_SignUp" sheetId="10" r:id="rId4"/>
+    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
+    <sheet name="TC001_SignIn" r:id="rId3" sheetId="3"/>
+    <sheet name="TC002_Login" r:id="rId4" sheetId="10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
   <si>
     <t>TS_02</t>
   </si>
@@ -64,18 +64,9 @@
     <t>To verify that user is able to sign in</t>
   </si>
   <si>
-    <t>TC002_SignUp</t>
-  </si>
-  <si>
     <t>To verify that user is able to sign up</t>
   </si>
   <si>
-    <t>Highlight message in backet</t>
-  </si>
-  <si>
-    <t>Click on basket button</t>
-  </si>
-  <si>
     <t>TS_01</t>
   </si>
   <si>
@@ -139,12 +130,6 @@
     <t>SwitchToFrame</t>
   </si>
   <si>
-    <t>btn_basket</t>
-  </si>
-  <si>
-    <t>elm_message</t>
-  </si>
-  <si>
     <t>TS_03</t>
   </si>
   <si>
@@ -176,15 +161,6 @@
   </si>
   <si>
     <t>EnterSavedValue</t>
-  </si>
-  <si>
-    <t>Save message text on cart page</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>Verify text</t>
   </si>
   <si>
     <t>VerifyElemDisabled</t>
@@ -366,25 +342,59 @@
     <t>To clear value from a text box</t>
   </si>
   <si>
-    <t>To save element text to runtime session data manager. The key will be element name.</t>
-  </si>
-  <si>
-    <t>To save a value to runtime. Pass the key in 'selector' column, and value in 'data' column</t>
-  </si>
-  <si>
-    <t>To verify element text with saved session data. Pass the 'element' as selector and expected 'key' as data.</t>
-  </si>
-  <si>
-    <t>Enter with saved value from session data. Pass the expected key as 'data'</t>
-  </si>
-  <si>
-    <t>To check if element is disabled.</t>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>TS_05</t>
+  </si>
+  <si>
+    <t>Wait for email field</t>
+  </si>
+  <si>
+    <t>txt_email</t>
+  </si>
+  <si>
+    <t>pcc.esourcingtest13@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_12345</t>
+  </si>
+  <si>
+    <t>txt_password</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Click on sign in button</t>
+  </si>
+  <si>
+    <t>btn_signin</t>
+  </si>
+  <si>
+    <t>Wait for dashboard title</t>
+  </si>
+  <si>
+    <t>elm_header</t>
+  </si>
+  <si>
+    <t>elm_wrong_header</t>
+  </si>
+  <si>
+    <t>TC002_Login</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,54 +498,54 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -552,10 +562,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -590,7 +600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,7 +652,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,7 +757,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -756,13 +766,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -772,7 +782,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -781,7 +791,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -790,7 +800,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -800,12 +810,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -836,7 +846,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -855,7 +865,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -867,288 +877,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="142.5" style="13" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="24.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="142.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B5" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B6" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B7" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="81.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
+    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1165,7 +1160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="16" r="2" s="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1179,12 +1174,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1195,32 +1190,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="TC001_SignIn!A1" display="TC001_SignIn" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" location="TC002_SignUp!A1" display="TC002_SignUp" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink display="TC001_SignIn" location="TC001_SignIn!A1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink display="TC002_SignUp" location="TC002_SignUp!A1" ref="A3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53.5" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="70.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.5" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1640625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="53.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="70.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="40.5" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1239,17 +1234,17 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1257,59 +1252,80 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>47</v>
+      <c r="D4" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>52</v>
+      <c r="A5" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D3" xr:uid="{7D2E6ED1-C190-F443-BEB3-42C39AD6D7EA}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A82EE43-19D1-E849-B185-86D9C39F7226}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{1A82EE43-19D1-E849-B185-86D9C39F7226}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C250</xm:sqref>
+          <xm:sqref>C2:C251</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1318,24 +1334,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53.5" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="70.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1640625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="53.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="70.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1354,17 +1370,17 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2"/>
+        <v>21</v>
+      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1372,22 +1388,87 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
+      <c r="D5" s="11"/>
+      <c r="E5" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14" xr:uid="{27B9D99F-DC95-694B-9F80-C667522DFFA4}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C7:C13" type="list" xr:uid="{27B9D99F-DC95-694B-9F80-C667522DFFA4}">
       <formula1>"NavigateTo,ClickOnElement,HighlightElement,HoverOnElement"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D3" xr:uid="{AE03CF7E-8F26-F944-8F5B-6031A1DA6B86}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AAC0343F-A2F4-6B45-81B5-4B2CFF5875A5}">
+          <x14:formula1>
+            <xm:f>Keywords!$A$2:$A$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>TS_02</t>
   </si>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
   <si>
     <t>TS_02</t>
   </si>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
   <si>
     <t>TS_02</t>
   </si>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>TS_02</t>
   </si>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Solutions/ccs-enterprise-automation-ui-project/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FF93901F-1912-784D-BF8D-A5BF54E1AEF7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE89618-5558-384C-BB2E-4D384348DBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" tabRatio="752" windowHeight="10880" windowWidth="26200" xWindow="1760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2020"/>
+    <workbookView xWindow="1760" yWindow="2020" windowWidth="26200" windowHeight="10880" tabRatio="752" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
-    <sheet name="TC001_SignIn" r:id="rId3" sheetId="3"/>
-    <sheet name="TC002_Login" r:id="rId4" sheetId="10"/>
+    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
+    <sheet name="TC003_VisualTesting" sheetId="12" r:id="rId3"/>
+    <sheet name="TC001_SignIn" sheetId="3" r:id="rId4"/>
+    <sheet name="TC002_Login" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="127">
   <si>
     <t>TS_02</t>
   </si>
@@ -188,9 +189,6 @@
   </si>
   <si>
     <t>To wait for an element absence.Maximum timeout is 30 sec.</t>
-  </si>
-  <si>
-    <t>To get text from a web element.The value will be saved in the session data manager  with key as  'element name' given and value as 'text' fetched.</t>
   </si>
   <si>
     <r>
@@ -219,9 +217,6 @@
     </r>
   </si>
   <si>
-    <t>To get count of specific web element present on page.The value will be saved in the session data manager with key as  'element name' given and value as 'count' fetched.</t>
-  </si>
-  <si>
     <t>To scroll into the element and get the element to the view</t>
   </si>
   <si>
@@ -229,7 +224,143 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">To get value of an attribute from a web element.The value will be saved in the session data manager  with key as  'element name' given and value as 'attribute value ' fetched. Provide the  attribute name to be evalutaed as </t>
+      <t xml:space="preserve">To select a value from dropdown. Provide the desired option as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To select a value that contains expected text from dropdown. Provide the desired option as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+  </si>
+  <si>
+    <t>To switch the execution control to a window</t>
+  </si>
+  <si>
+    <t>To switch back to parent window.</t>
+  </si>
+  <si>
+    <t>To switch back to parent frame</t>
+  </si>
+  <si>
+    <t>To switch to an iFrame</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To verify that element text is as expected. Provide expected value as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To verify that element text is not as expected. Provide expected value as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+  </si>
+  <si>
+    <t>To verify presence of an element</t>
+  </si>
+  <si>
+    <t>To verify absence of an element</t>
+  </si>
+  <si>
+    <t>To enter a value in text box</t>
+  </si>
+  <si>
+    <t>To clear value from a text box</t>
+  </si>
+  <si>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>TS_05</t>
+  </si>
+  <si>
+    <t>Wait for email field</t>
+  </si>
+  <si>
+    <t>txt_email</t>
+  </si>
+  <si>
+    <t>pcc.esourcingtest13@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test_12345</t>
+  </si>
+  <si>
+    <t>txt_password</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Click on sign in button</t>
+  </si>
+  <si>
+    <t>btn_signin</t>
+  </si>
+  <si>
+    <t>Wait for dashboard title</t>
+  </si>
+  <si>
+    <t>elm_header</t>
+  </si>
+  <si>
+    <t>elm_wrong_header</t>
+  </si>
+  <si>
+    <t>TC002_Login</t>
+  </si>
+  <si>
+    <t>To get text from a web element.The value will be saved in the session data manager  with key as  'element name' given and value as 'text' fetched.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To get value of an attribute from a web element.The value will be saved in the session data manager  with key as  'element name' given and value as 'attribute value ' fetched. Provide the  attribute name to be evalutaed as </t>
     </r>
     <r>
       <rPr>
@@ -254,8 +385,29 @@
     </r>
   </si>
   <si>
+    <t>To get count of specific web element present on page.The value will be saved in the session data manager with key as  'element name' given and value as 'count' fetched.</t>
+  </si>
+  <si>
+    <t>To save element text to runtime session data manager. The key will be element name.</t>
+  </si>
+  <si>
+    <t>To save a value to runtime. Pass the key in 'selector' column, and value in 'data' column</t>
+  </si>
+  <si>
+    <t>To verify element text with saved session data. Pass the 'element' as selector and expected 'key' as data.</t>
+  </si>
+  <si>
+    <t>Enter with saved value from session data. Pass the expected key as 'data'</t>
+  </si>
+  <si>
+    <t>To check if element is disabled.</t>
+  </si>
+  <si>
+    <t>EnterRandomEmail</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">To select a value from dropdown. Provide the desired option as </t>
+      <t xml:space="preserve">To enter random email id. Give </t>
     </r>
     <r>
       <rPr>
@@ -268,134 +420,119 @@
       </rPr>
       <t>data</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To select a value that contains expected text from dropdown. Provide the desired option as </t>
-    </r>
     <r>
       <rPr>
-        <b/>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>data</t>
+      <t xml:space="preserve"> as ' expected domain'. Eg: yopmail.com</t>
     </r>
   </si>
   <si>
-    <t>To switch the execution control to a window</t>
-  </si>
-  <si>
-    <t>To switch back to parent window.</t>
-  </si>
-  <si>
-    <t>To switch back to parent frame</t>
-  </si>
-  <si>
-    <t>To switch to an iFrame</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To verify that element text is as expected. Provide expected value as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To verify that element text is not as expected. Provide expected value as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data</t>
-    </r>
-  </si>
-  <si>
-    <t>To verify presence of an element</t>
-  </si>
-  <si>
-    <t>To verify absence of an element</t>
-  </si>
-  <si>
-    <t>To enter a value in text box</t>
-  </si>
-  <si>
-    <t>To clear value from a text box</t>
-  </si>
-  <si>
-    <t>TS_04</t>
-  </si>
-  <si>
-    <t>TS_05</t>
-  </si>
-  <si>
-    <t>Wait for email field</t>
-  </si>
-  <si>
-    <t>txt_email</t>
-  </si>
-  <si>
-    <t>pcc.esourcingtest13@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_12345</t>
-  </si>
-  <si>
-    <t>txt_password</t>
-  </si>
-  <si>
-    <t>Enter email</t>
-  </si>
-  <si>
-    <t>Enter password</t>
-  </si>
-  <si>
-    <t>Click on sign in button</t>
-  </si>
-  <si>
-    <t>btn_signin</t>
-  </si>
-  <si>
-    <t>Wait for dashboard title</t>
-  </si>
-  <si>
-    <t>elm_header</t>
-  </si>
-  <si>
-    <t>elm_wrong_header</t>
-  </si>
-  <si>
-    <t>TC002_Login</t>
-  </si>
-  <si>
-    <t/>
+    <t>EnterRandomText</t>
+  </si>
+  <si>
+    <t>To enter random text [Format: Automation+random letters (5) ]</t>
+  </si>
+  <si>
+    <t>SelectCheckbox</t>
+  </si>
+  <si>
+    <t>To select a checkbox</t>
+  </si>
+  <si>
+    <t>IsCheckboxSelected</t>
+  </si>
+  <si>
+    <t>To check a checkbox is selected or not. Pass 'data' as 'True' or 'false'</t>
+  </si>
+  <si>
+    <t>TakePercySnapshot</t>
+  </si>
+  <si>
+    <t>To take snapshot in percy visual testing. Use 'data' as pagename</t>
+  </si>
+  <si>
+    <t>TC003_VisualTesting</t>
+  </si>
+  <si>
+    <t>To verify percy visual testing</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Wait for page header to be displayed</t>
+  </si>
+  <si>
+    <t>Save expected page header</t>
+  </si>
+  <si>
+    <t>Sign in to the Public Procurement Gateway</t>
+  </si>
+  <si>
+    <t>expected_message</t>
+  </si>
+  <si>
+    <t>Verify the page header value</t>
+  </si>
+  <si>
+    <t>TS_06</t>
+  </si>
+  <si>
+    <t>Click sign in button</t>
+  </si>
+  <si>
+    <t>signin_button</t>
+  </si>
+  <si>
+    <t>TS_07</t>
+  </si>
+  <si>
+    <t>Wait for PPG dashboard</t>
+  </si>
+  <si>
+    <t>elm_dashboard_header</t>
+  </si>
+  <si>
+    <t>TS_08</t>
+  </si>
+  <si>
+    <t>Public Procurement Gateway Dashboard</t>
+  </si>
+  <si>
+    <t>expected_dashboardTitle</t>
+  </si>
+  <si>
+    <t>TS_09</t>
+  </si>
+  <si>
+    <t>Verify dashboard text</t>
+  </si>
+  <si>
+    <t>Take Percy Snapshot</t>
+  </si>
+  <si>
+    <t>sign in page</t>
+  </si>
+  <si>
+    <t>dashboard page</t>
+  </si>
+  <si>
+    <t>TS_10</t>
+  </si>
+  <si>
+    <t>TS_11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,7 +571,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -442,7 +579,37 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0066CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,54 +665,54 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -562,10 +729,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -600,7 +767,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,7 +819,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -757,7 +924,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -766,13 +933,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -782,7 +949,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -791,7 +958,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -800,7 +967,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -810,12 +977,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -846,7 +1013,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -865,7 +1032,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -877,273 +1044,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="24.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="142.5" collapsed="true"/>
+    <col min="1" max="1" width="24.1640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="177" style="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>72</v>
+      <c r="B25" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="B26" s="9" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="B27" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="B28" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="B29" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>56</v>
+      <c r="B31" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="81.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
-    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1160,7 +1382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="16" r="2" s="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1168,54 +1390,281 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row ht="16" r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="TC001_SignIn" location="TC001_SignIn!A1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink display="TC002_SignUp" location="TC002_SignUp!A1" ref="A3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A2" location="TC001_SignIn!A1" display="TC001_SignIn" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" location="TC002_SignUp!A1" display="TC002_SignUp" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" location="TC003_VisualTesting!A1" display="TC003_VisualTesting" xr:uid="{72A927A2-4DA6-2D49-9228-2DB9FCCF0F2E}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F9272-E435-A340-8F70-AC025BC35780}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.1640625" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="53.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="70.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="40.5" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.5" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="70.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.5" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1237,14 +1686,14 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1252,16 +1701,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>77</v>
+      <c r="D3" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1269,59 +1718,59 @@
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>78</v>
+      <c r="D4" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3" xr:uid="{7D2E6ED1-C190-F443-BEB3-42C39AD6D7EA}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{7D2E6ED1-C190-F443-BEB3-42C39AD6D7EA}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{1A82EE43-19D1-E849-B185-86D9C39F7226}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A82EE43-19D1-E849-B185-86D9C39F7226}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -1333,25 +1782,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
-  <dimension ref="A1:F6"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="53.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="70.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.5" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="70.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1373,14 +1822,14 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1388,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>77</v>
+      <c r="D3" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1405,63 +1854,63 @@
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>78</v>
+      <c r="D4" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C7:C13" type="list" xr:uid="{27B9D99F-DC95-694B-9F80-C667522DFFA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C13" xr:uid="{27B9D99F-DC95-694B-9F80-C667522DFFA4}">
       <formula1>"NavigateTo,ClickOnElement,HighlightElement,HoverOnElement"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3" xr:uid="{AE03CF7E-8F26-F944-8F5B-6031A1DA6B86}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{AE03CF7E-8F26-F944-8F5B-6031A1DA6B86}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AAC0343F-A2F4-6B45-81B5-4B2CFF5875A5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AAC0343F-A2F4-6B45-81B5-4B2CFF5875A5}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Solutions/ccs-enterprise-automation-ui-project/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE89618-5558-384C-BB2E-4D384348DBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AB072F-7D1A-0648-8487-21CB59F79CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="2020" windowWidth="26200" windowHeight="10880" tabRatio="752" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="129">
   <si>
     <t>TS_02</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>TS_11</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1399,7 @@
         <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1407,7 +1413,7 @@
         <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1419,6 +1425,9 @@
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1436,15 +1445,15 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="58.1640625" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="58.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Solutions/ccs-enterprise-automation-ui-project/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AB072F-7D1A-0648-8487-21CB59F79CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5D5FFF2C-BDE1-5941-99AB-C99B7D993383}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="2020" windowWidth="26200" windowHeight="10880" tabRatio="752" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="752" windowHeight="12940" windowWidth="26200" xWindow="1760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2020"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
-    <sheet name="TC003_VisualTesting" sheetId="12" r:id="rId3"/>
-    <sheet name="TC001_SignIn" sheetId="3" r:id="rId4"/>
-    <sheet name="TC002_Login" sheetId="10" r:id="rId5"/>
+    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
+    <sheet name="TC001_VisualTesting" r:id="rId3" sheetId="12"/>
+    <sheet name="TC001_SignIn" r:id="rId4" sheetId="3"/>
+    <sheet name="TC002_Login" r:id="rId5" sheetId="10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="155">
   <si>
     <t>TS_02</t>
   </si>
@@ -57,15 +57,6 @@
   </si>
   <si>
     <t>Selector</t>
-  </si>
-  <si>
-    <t>TC001_SignIn</t>
-  </si>
-  <si>
-    <t>To verify that user is able to sign in</t>
-  </si>
-  <si>
-    <t>To verify that user is able to sign up</t>
   </si>
   <si>
     <t>TS_01</t>
@@ -353,9 +344,6 @@
     <t>elm_wrong_header</t>
   </si>
   <si>
-    <t>TC002_Login</t>
-  </si>
-  <si>
     <t>To get text from a web element.The value will be saved in the session data manager  with key as  'element name' given and value as 'text' fetched.</t>
   </si>
   <si>
@@ -456,15 +444,9 @@
     <t>To take snapshot in percy visual testing. Use 'data' as pagename</t>
   </si>
   <si>
-    <t>TC003_VisualTesting</t>
-  </si>
-  <si>
     <t>To verify percy visual testing</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Wait for page header to be displayed</t>
   </si>
   <si>
@@ -516,29 +498,126 @@
     <t>Take Percy Snapshot</t>
   </si>
   <si>
-    <t>sign in page</t>
-  </si>
-  <si>
-    <t>dashboard page</t>
-  </si>
-  <si>
     <t>TS_10</t>
   </si>
   <si>
     <t>TS_11</t>
   </si>
   <si>
+    <t>https://test.identify.crowncommercial.gov.uk/profile</t>
+  </si>
+  <si>
+    <t>Navigate to 'manage my account</t>
+  </si>
+  <si>
+    <t>https://test.identify.crowncommercial.gov.uk/manage-org/profile</t>
+  </si>
+  <si>
+    <t>Navigate to 'manage my organisation'</t>
+  </si>
+  <si>
+    <t>Navigate to 'manage my users'</t>
+  </si>
+  <si>
+    <t>https://test.identify.crowncommercial.gov.uk/manage-users</t>
+  </si>
+  <si>
+    <t>https://test.identify.crowncommercial.gov.uk/manage-groups</t>
+  </si>
+  <si>
+    <t>Navigate to 'manage my groups'</t>
+  </si>
+  <si>
+    <t>TS_12</t>
+  </si>
+  <si>
+    <t>TS_13</t>
+  </si>
+  <si>
+    <t>TS_14</t>
+  </si>
+  <si>
+    <t>TS_15</t>
+  </si>
+  <si>
+    <t>Manage Account page</t>
+  </si>
+  <si>
+    <t>Dashboard page</t>
+  </si>
+  <si>
+    <t>Sign in page</t>
+  </si>
+  <si>
+    <t>Manage Organisation page</t>
+  </si>
+  <si>
+    <t>Manage Users page</t>
+  </si>
+  <si>
+    <t>TS_16</t>
+  </si>
+  <si>
+    <t>TS_17</t>
+  </si>
+  <si>
+    <t>TS_18</t>
+  </si>
+  <si>
+    <t>Manage Group page</t>
+  </si>
+  <si>
+    <t>btn_account_changepassword</t>
+  </si>
+  <si>
+    <t>btn_org_addContact</t>
+  </si>
+  <si>
+    <t>btn_users_add</t>
+  </si>
+  <si>
+    <t>btn_group_create</t>
+  </si>
+  <si>
+    <t>Wait for add org contact button</t>
+  </si>
+  <si>
+    <t>Wait for change password button</t>
+  </si>
+  <si>
+    <t>Wait for add users button</t>
+  </si>
+  <si>
+    <t>Wait for add group button</t>
+  </si>
+  <si>
+    <t>TS_19</t>
+  </si>
+  <si>
+    <t>TS_20</t>
+  </si>
+  <si>
+    <t>TS_21</t>
+  </si>
+  <si>
+    <t>TS_22</t>
+  </si>
+  <si>
+    <t>TS_23</t>
+  </si>
+  <si>
+    <t>TC001_VisualTesting</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,14 +685,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF0066CC"/>
       <name val="Calibri"/>
@@ -671,54 +742,51 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -735,10 +803,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -773,7 +841,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -825,7 +893,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -930,7 +998,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -939,13 +1007,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -955,7 +1023,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -964,7 +1032,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -973,7 +1041,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -983,12 +1051,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1019,7 +1087,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1038,7 +1106,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1050,328 +1118,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="177" style="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="8" width="24.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="177.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="9" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="81.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
+    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1388,292 +1456,442 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>105</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="TC001_SignIn!A1" display="TC001_SignIn" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" location="TC002_SignUp!A1" display="TC002_SignUp" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" location="TC003_VisualTesting!A1" display="TC003_VisualTesting" xr:uid="{72A927A2-4DA6-2D49-9228-2DB9FCCF0F2E}"/>
+    <hyperlink display="TC003_VisualTesting" location="TC003_VisualTesting!A1" ref="A2" xr:uid="{72A927A2-4DA6-2D49-9228-2DB9FCCF0F2E}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F9272-E435-A340-8F70-AC025BC35780}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F9272-E435-A340-8F70-AC025BC35780}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="58.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="45.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="58.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="14" t="s">
+    </row>
+    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="C9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    </row>
+    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
+      <c r="C19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="C21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="E22" s="13"/>
+    </row>
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>124</v>
+      <c r="C24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D6" xr:uid="{D43F9611-9973-C94E-8E32-6199042EA6F2}"/>
+    <hyperlink r:id="rId2" ref="D13" xr:uid="{DDAF86DB-339B-4541-BB2C-BFD2983C6C2E}"/>
+    <hyperlink r:id="rId3" ref="D16" xr:uid="{6983F312-3F23-3E44-AE7B-2DE52EA089BF}"/>
+    <hyperlink r:id="rId4" ref="D19" xr:uid="{5A44BF56-F482-C344-9A18-BCB307B43217}"/>
+    <hyperlink r:id="rId5" ref="D22" xr:uid="{62C7A945-0180-6545-906E-0F7D21B8B700}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53.5" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="70.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.5" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1640625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="53.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="70.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="40.5" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1686,23 +1904,23 @@
       <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1710,76 +1928,76 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{7D2E6ED1-C190-F443-BEB3-42C39AD6D7EA}"/>
+    <hyperlink r:id="rId1" ref="D3" xr:uid="{7D2E6ED1-C190-F443-BEB3-42C39AD6D7EA}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A82EE43-19D1-E849-B185-86D9C39F7226}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{1A82EE43-19D1-E849-B185-86D9C39F7226}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -1792,8 +2010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -1801,15 +2019,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53.5" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="70.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1640625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="53.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="70.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1822,23 +2040,23 @@
       <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1846,80 +2064,80 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C13" xr:uid="{27B9D99F-DC95-694B-9F80-C667522DFFA4}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C7:C13" type="list" xr:uid="{27B9D99F-DC95-694B-9F80-C667522DFFA4}">
       <formula1>"NavigateTo,ClickOnElement,HighlightElement,HoverOnElement"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{AE03CF7E-8F26-F944-8F5B-6031A1DA6B86}"/>
+    <hyperlink r:id="rId1" ref="D3" xr:uid="{AE03CF7E-8F26-F944-8F5B-6031A1DA6B86}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AAC0343F-A2F4-6B45-81B5-4B2CFF5875A5}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AAC0343F-A2F4-6B45-81B5-4B2CFF5875A5}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Solutions/ccs-enterprise-automation-ui-project/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5D5FFF2C-BDE1-5941-99AB-C99B7D993383}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3DACD-57AC-274E-A45B-8B3054151C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="752" windowHeight="12940" windowWidth="26200" xWindow="1760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2020"/>
+    <workbookView xWindow="1760" yWindow="2020" windowWidth="26200" windowHeight="12940" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
-    <sheet name="TC001_VisualTesting" r:id="rId3" sheetId="12"/>
-    <sheet name="TC001_SignIn" r:id="rId4" sheetId="3"/>
-    <sheet name="TC002_Login" r:id="rId5" sheetId="10"/>
+    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
+    <sheet name="TC001_VisualTesting" sheetId="12" r:id="rId3"/>
+    <sheet name="TC001_SignIn" sheetId="3" r:id="rId4"/>
+    <sheet name="TC002_Login" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="170">
   <si>
     <t>TS_02</t>
   </si>
@@ -344,38 +354,6 @@
     <t>elm_wrong_header</t>
   </si>
   <si>
-    <t>To get text from a web element.The value will be saved in the session data manager  with key as  'element name' given and value as 'text' fetched.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To get value of an attribute from a web element.The value will be saved in the session data manager  with key as  'element name' given and value as 'attribute value ' fetched. Provide the  attribute name to be evalutaed as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>To get count of specific web element present on page.The value will be saved in the session data manager with key as  'element name' given and value as 'count' fetched.</t>
-  </si>
-  <si>
     <t>To save element text to runtime session data manager. The key will be element name.</t>
   </si>
   <si>
@@ -609,14 +587,90 @@
     <t>TC001_VisualTesting</t>
   </si>
   <si>
-    <t/>
+    <t>autuserforvt22@yopmail.com</t>
+  </si>
+  <si>
+    <t>TS_24</t>
+  </si>
+  <si>
+    <t>Wait for overlay absense</t>
+  </si>
+  <si>
+    <t>elm_overlay</t>
+  </si>
+  <si>
+    <t>TS_25</t>
+  </si>
+  <si>
+    <t>TS_26</t>
+  </si>
+  <si>
+    <t>TS_27</t>
+  </si>
+  <si>
+    <t>TS_28</t>
+  </si>
+  <si>
+    <t>To get text from a web element.The value will be saved in the session data manager  with key as  'element name' given and value as 'text' fetched.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To get value of an attribute from a web element.The value will be saved in the session data manager  with key as  'element name' given and value as 'attribute value ' fetched. Provide the  attribute name to be evalutaed as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>To get count of specific web element present on page.The value will be saved in the session data manager with key as  'element name' given and value as 'count' fetched.</t>
+  </si>
+  <si>
+    <t>ClickWithParameter</t>
+  </si>
+  <si>
+    <t>To click on an element after replacing parameter. It will replace '#' in xpath with value in 'data' coulumn</t>
+  </si>
+  <si>
+    <t>PressEnterKey</t>
+  </si>
+  <si>
+    <t>To press enter key on an element</t>
+  </si>
+  <si>
+    <t>SelectWithParameter</t>
+  </si>
+  <si>
+    <t>To select a checkbox after replacing parameter. It will replace '#' in xpath with value in 'data' coulumn</t>
+  </si>
+  <si>
+    <t>UnCheckOption</t>
+  </si>
+  <si>
+    <t>To uncheck a checkbox if already selected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -663,14 +717,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -687,6 +733,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0066CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -742,51 +796,62 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -803,10 +868,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -841,7 +906,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -893,7 +958,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -998,7 +1063,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1007,13 +1072,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1023,7 +1088,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1032,7 +1097,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1041,7 +1106,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1051,12 +1116,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1087,7 +1152,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1106,7 +1171,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1118,328 +1183,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="8" width="24.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="177.0" collapsed="true"/>
+    <col min="1" max="1" width="24.1640625" style="8" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="177" style="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="8" t="s">
+    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="8" t="s">
+    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="8" t="s">
+    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="B32" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="B33" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="8" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="B34" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="8" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="B35" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="8" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="B36" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>98</v>
+    </row>
+    <row r="37" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="81.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
-    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1457,11 +1554,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>153</v>
+      <c r="A2" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1472,426 +1569,501 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="TC003_VisualTesting" location="TC003_VisualTesting!A1" ref="A2" xr:uid="{72A927A2-4DA6-2D49-9228-2DB9FCCF0F2E}"/>
+    <hyperlink ref="A2" location="TC003_VisualTesting!A1" display="TC003_VisualTesting" xr:uid="{72A927A2-4DA6-2D49-9228-2DB9FCCF0F2E}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F9272-E435-A340-8F70-AC025BC35780}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F9272-E435-A340-8F70-AC025BC35780}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="45.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="58.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="58.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="13" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="D12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="13" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="D26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="13"/>
-    </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D6" xr:uid="{D43F9611-9973-C94E-8E32-6199042EA6F2}"/>
-    <hyperlink r:id="rId2" ref="D13" xr:uid="{DDAF86DB-339B-4541-BB2C-BFD2983C6C2E}"/>
-    <hyperlink r:id="rId3" ref="D16" xr:uid="{6983F312-3F23-3E44-AE7B-2DE52EA089BF}"/>
-    <hyperlink r:id="rId4" ref="D19" xr:uid="{5A44BF56-F482-C344-9A18-BCB307B43217}"/>
-    <hyperlink r:id="rId5" ref="D22" xr:uid="{62C7A945-0180-6545-906E-0F7D21B8B700}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{D43F9611-9973-C94E-8E32-6199042EA6F2}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{DDAF86DB-339B-4541-BB2C-BFD2983C6C2E}"/>
+    <hyperlink ref="D18" r:id="rId3" xr:uid="{6983F312-3F23-3E44-AE7B-2DE52EA089BF}"/>
+    <hyperlink ref="D22" r:id="rId4" xr:uid="{5A44BF56-F482-C344-9A18-BCB307B43217}"/>
+    <hyperlink ref="D26" r:id="rId5" xr:uid="{62C7A945-0180-6545-906E-0F7D21B8B700}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="53.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="70.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="40.5" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.5" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="70.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.5" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1990,14 +2162,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3" xr:uid="{7D2E6ED1-C190-F443-BEB3-42C39AD6D7EA}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{7D2E6ED1-C190-F443-BEB3-42C39AD6D7EA}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{1A82EE43-19D1-E849-B185-86D9C39F7226}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A82EE43-19D1-E849-B185-86D9C39F7226}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -2010,8 +2182,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -2019,15 +2191,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="53.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="70.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.5" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="70.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2125,19 +2297,19 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C7:C13" type="list" xr:uid="{27B9D99F-DC95-694B-9F80-C667522DFFA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C13" xr:uid="{27B9D99F-DC95-694B-9F80-C667522DFFA4}">
       <formula1>"NavigateTo,ClickOnElement,HighlightElement,HoverOnElement"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3" xr:uid="{AE03CF7E-8F26-F944-8F5B-6031A1DA6B86}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{AE03CF7E-8F26-F944-8F5B-6031A1DA6B86}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AAC0343F-A2F4-6B45-81B5-4B2CFF5875A5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AAC0343F-A2F4-6B45-81B5-4B2CFF5875A5}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Solutions/ccs-enterprise-automation-ui-project/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3DACD-57AC-274E-A45B-8B3054151C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755352A1-3361-3942-A918-9B308CDB4BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="2020" windowWidth="26200" windowHeight="12940" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
     <sheet name="TestCases" sheetId="4" r:id="rId2"/>
-    <sheet name="TC001_VisualTesting" sheetId="12" r:id="rId3"/>
-    <sheet name="TC001_SignIn" sheetId="3" r:id="rId4"/>
-    <sheet name="TC002_Login" sheetId="10" r:id="rId5"/>
+    <sheet name="TC002_FileUpload" sheetId="13" r:id="rId3"/>
+    <sheet name="TC001_VisualTesting" sheetId="12" r:id="rId4"/>
+    <sheet name="TC001_SignIn" sheetId="3" r:id="rId5"/>
+    <sheet name="TC002_Login" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="179">
   <si>
     <t>TS_02</t>
   </si>
@@ -665,6 +666,33 @@
   </si>
   <si>
     <t>To uncheck a checkbox if already selected</t>
+  </si>
+  <si>
+    <t>UploadFile</t>
+  </si>
+  <si>
+    <t>TC002_FileUpload</t>
+  </si>
+  <si>
+    <t>To upload a file</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>elm_upload</t>
+  </si>
+  <si>
+    <t>Upload a file</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>/src/test/resources/inputFiles/testFileupload.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To upload a file. Add files under src/test/resources/inputFiles. Provide value as path from content root (right click on file &gt; copy path or reference &gt; copy path from content root. Add '/' at the beginning (Eg: /src/test/resources/inputFiles/testFileupload.txt) </t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1516,6 +1544,14 @@
         <v>169</v>
       </c>
     </row>
+    <row r="41" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1524,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1561,9 +1597,23 @@
         <v>96</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1576,11 +1626,82 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218E4CAA-8CE3-9A43-98B7-0937BA1D7CB8}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F9272-E435-A340-8F70-AC025BC35780}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2045,12 +2166,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2181,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
   <dimension ref="A1:E6"/>
   <sheetViews>
